--- a/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-05.xlsx
+++ b/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22380" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM  4 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM  5 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,13 +505,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -5133,7 +5134,7 @@
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -5193,7 +5194,7 @@
         <v>68</v>
       </c>
       <c r="V66" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" s="2">
         <v>57</v>
@@ -5701,7 +5702,7 @@
         <v>43937</v>
       </c>
       <c r="B74" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -5764,7 +5765,7 @@
         <v>30</v>
       </c>
       <c r="W74" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6917,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2">
         <v>8</v>
@@ -6944,7 +6945,7 @@
         <v>6</v>
       </c>
       <c r="N91" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O91" s="2">
         <v>1</v>
@@ -6979,70 +6980,141 @@
         <v>43955</v>
       </c>
       <c r="B92" s="2">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92" s="2">
+        <v>23</v>
+      </c>
+      <c r="G92" s="2">
+        <v>11</v>
+      </c>
+      <c r="H92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" s="2">
+        <v>4</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2">
+        <v>38</v>
+      </c>
+      <c r="N92" s="2">
+        <v>135</v>
+      </c>
+      <c r="O92" s="2">
         <v>3</v>
       </c>
-      <c r="G92" s="2">
+      <c r="P92" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>6</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
         <v>4</v>
       </c>
-      <c r="H92" s="2">
-        <v>2</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2">
-        <v>5</v>
-      </c>
-      <c r="K92" s="2">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2">
-        <v>2</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0</v>
-      </c>
-      <c r="N92" s="2">
-        <v>32</v>
-      </c>
-      <c r="O92" s="2">
-        <v>0</v>
-      </c>
-      <c r="P92" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2">
-        <v>0</v>
-      </c>
-      <c r="S92" s="2">
-        <v>2</v>
-      </c>
       <c r="T92" s="2">
+        <v>8</v>
+      </c>
+      <c r="U92" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" s="2">
+        <v>17</v>
+      </c>
+      <c r="W92" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B93" s="2">
+        <v>155</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>7</v>
+      </c>
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>3</v>
+      </c>
+      <c r="M93" s="2">
         <v>4</v>
       </c>
-      <c r="U92" s="2">
-        <v>9</v>
-      </c>
-      <c r="V92" s="2">
+      <c r="N93" s="2">
+        <v>46</v>
+      </c>
+      <c r="O93" s="2">
+        <v>26</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>7</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>7</v>
+      </c>
+      <c r="U93" s="2">
+        <v>25</v>
+      </c>
+      <c r="V93" s="2">
         <v>3</v>
       </c>
-      <c r="W92" s="2">
-        <v>5</v>
+      <c r="W93" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7052,13 +7124,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B2:B57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B49" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7161,7 +7236,7 @@
         <v>43912</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7273,7 +7348,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7329,7 +7404,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7377,7 +7452,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7393,7 +7468,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7417,7 +7492,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7433,7 +7508,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7441,7 +7516,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7449,7 +7524,7 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7457,7 +7532,7 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7465,7 +7540,7 @@
         <v>43950</v>
       </c>
       <c r="B51" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7473,7 +7548,7 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7481,7 +7556,7 @@
         <v>43952</v>
       </c>
       <c r="B53" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7489,7 +7564,7 @@
         <v>43953</v>
       </c>
       <c r="B54" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7497,7 +7572,7 @@
         <v>43954</v>
       </c>
       <c r="B55" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7505,14 +7580,22 @@
         <v>43955</v>
       </c>
       <c r="B56" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>8</v>
       </c>
     </row>
@@ -7523,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7728,7 +7811,7 @@
         <v>43919</v>
       </c>
       <c r="B25" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7736,7 +7819,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7752,7 +7835,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7760,7 +7843,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7776,7 +7859,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7832,7 +7915,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7840,7 +7923,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7848,7 +7931,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7872,7 +7955,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7976,7 +8059,7 @@
         <v>43950</v>
       </c>
       <c r="B56" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7984,7 +8067,7 @@
         <v>43951</v>
       </c>
       <c r="B57" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7992,7 +8075,7 @@
         <v>43952</v>
       </c>
       <c r="B58" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8008,7 +8091,7 @@
         <v>43954</v>
       </c>
       <c r="B60" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8016,7 +8099,15 @@
         <v>43955</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8028,7 +8119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -8071,10 +8164,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="C3" s="2">
-        <v>297.25732421875</v>
+        <v>301.42446899414063</v>
       </c>
       <c r="D3" s="2">
         <v>42</v>
@@ -8088,10 +8181,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
-        <v>90.473480224609375</v>
+        <v>88.798042297363281</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -8105,16 +8198,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C5" s="2">
-        <v>220.96025085449219</v>
+        <v>230.0074462890625</v>
       </c>
       <c r="D5" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8122,16 +8215,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2">
-        <v>115.9210205078125</v>
+        <v>118.31732177734375</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8139,10 +8232,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C7" s="2">
-        <v>274.44384765625</v>
+        <v>279.79513549804688</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -8156,16 +8249,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C8" s="2">
-        <v>232.67390441894531</v>
+        <v>237.89944458007813</v>
       </c>
       <c r="D8" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8173,16 +8266,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2">
-        <v>76.187835693359375</v>
+        <v>79.854629516601563</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8190,16 +8283,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C10" s="2">
-        <v>175.70941162109375</v>
+        <v>178.68754577636719</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8207,10 +8300,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2">
-        <v>108.35968780517578</v>
+        <v>110.35894775390625</v>
       </c>
       <c r="D11" s="2">
         <v>29</v>
@@ -8224,13 +8317,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="C12" s="2">
-        <v>62.199390411376953</v>
+        <v>65.247665405273438</v>
       </c>
       <c r="D12" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2">
         <v>70</v>
@@ -8241,16 +8334,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>8536</v>
+        <v>8686</v>
       </c>
       <c r="C13" s="2">
-        <v>359.09588623046875</v>
+        <v>365.4061279296875</v>
       </c>
       <c r="D13" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E13" s="2">
-        <v>1463</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8258,16 +8351,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1285</v>
+        <v>1314</v>
       </c>
       <c r="C14" s="2">
-        <v>431.87469482421875</v>
+        <v>441.62130737304688</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8275,16 +8368,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="2">
-        <v>278.33303833007813</v>
+        <v>283.80587768554688</v>
       </c>
       <c r="D15" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8292,13 +8385,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2">
-        <v>73.296646118164063</v>
+        <v>77.899818420410156</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
@@ -8309,10 +8402,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17" s="2">
-        <v>121.44139862060547</v>
+        <v>122.17740631103516</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
@@ -8326,16 +8419,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18" s="2">
-        <v>112.49373626708984</v>
+        <v>113.30890655517578</v>
       </c>
       <c r="D18" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8343,16 +8436,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="C19" s="2">
-        <v>293.2806396484375</v>
+        <v>297.26840209960938</v>
       </c>
       <c r="D19" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8360,16 +8453,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2720</v>
+        <v>2813</v>
       </c>
       <c r="C20" s="2">
-        <v>157.60066223144531</v>
+        <v>162.98922729492188</v>
       </c>
       <c r="D20" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8377,16 +8470,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C21" s="2">
-        <v>364.49533081054688</v>
+        <v>370.4007568359375</v>
       </c>
       <c r="D21" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8394,16 +8487,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1499</v>
+        <v>1522</v>
       </c>
       <c r="C22" s="2">
-        <v>322.02279663085938</v>
+        <v>326.96377563476563</v>
       </c>
       <c r="D22" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8438,13 +8531,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>10021</v>
+        <v>10231</v>
       </c>
       <c r="C2" s="2">
-        <v>1177</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="2">
-        <v>1565</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8452,13 +8545,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>12696</v>
+        <v>12982</v>
       </c>
       <c r="C3" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D3" s="2">
-        <v>1204</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8466,7 +8559,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -8507,7 +8600,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -8521,13 +8614,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8535,13 +8628,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1766</v>
+        <v>1807</v>
       </c>
       <c r="C4" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8549,10 +8642,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>2390</v>
+        <v>2439</v>
       </c>
       <c r="C5" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -8563,13 +8656,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>3049</v>
+        <v>3136</v>
       </c>
       <c r="C6" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D6" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8577,13 +8670,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>4006</v>
+        <v>4091</v>
       </c>
       <c r="C7" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D7" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8591,13 +8684,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2915</v>
+        <v>2971</v>
       </c>
       <c r="C8" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D8" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8605,13 +8698,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2842</v>
+        <v>2914</v>
       </c>
       <c r="C9" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8619,13 +8712,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>3506</v>
+        <v>3562</v>
       </c>
       <c r="C10" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>1112</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8633,13 +8726,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1868</v>
+        <v>1912</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8647,13 +8740,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
